--- a/Documents/TestingTemplate_Compatibility.xlsx
+++ b/Documents/TestingTemplate_Compatibility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Unfinished\Introductory Games Programming\Assessment\AT3 - Group Game Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAFEStorage/Unfinished/Introductory Games Programming/Assessment/AT3 - Group Game Project/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D88F8-42F0-4D5C-BEE5-15989AA6A3D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C508E0-AD7A-6541-88B3-315FA6069172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39915" yWindow="4230" windowWidth="14400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Max CPU %: 6%                    Max RAM %: 6.5%               Max GPU %: 25%                  Avg FPS: 58</t>
+  </si>
+  <si>
+    <t>1.4 GHz Dual-Core Intel Core i5</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 5000 1536 MB</t>
+  </si>
+  <si>
+    <t>4GB 1600 MHz DDR3</t>
+  </si>
+  <si>
+    <t>macOS Catalina VersionL 10.15.4</t>
+  </si>
+  <si>
+    <t>Max CPU %: 46.2%                       Max RAM %:  5.1%              Max GPU%: 21.8%  Avg FPS: 55</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
@@ -211,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -224,6 +239,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,34 +593,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="3:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -625,8 +649,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
+    <row r="4" spans="3:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="C4" s="6">
+        <v>43962</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -646,19 +672,33 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
+    <row r="5" spans="3:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="C5" s="7">
+        <v>43962</v>
+      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="8">
+        <v>43962</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -668,7 +708,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -679,7 +719,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -690,7 +730,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -701,7 +741,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -712,7 +752,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -723,7 +763,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -734,7 +774,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>

--- a/Documents/TestingTemplate_Compatibility.xlsx
+++ b/Documents/TestingTemplate_Compatibility.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAFEStorage/Unfinished/Introductory Games Programming/Assessment/AT3 - Group Game Project/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EroR43/Documents/GitHub/TAFE-Group-Game/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C508E0-AD7A-6541-88B3-315FA6069172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1E050-F008-B44A-AD7A-02E052883730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Team Endorsement</t>
   </si>
   <si>
-    <t>Author - Joshua Ferguson</t>
-  </si>
-  <si>
     <t>CPU Details</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Windows 10 Pro 10.0.18362 Build 18362</t>
   </si>
   <si>
-    <t>Max CPU %: 6%                    Max RAM %: 6.5%               Max GPU %: 25%                  Avg FPS: 58</t>
-  </si>
-  <si>
     <t>1.4 GHz Dual-Core Intel Core i5</t>
   </si>
   <si>
@@ -107,6 +101,27 @@
   </si>
   <si>
     <t>Max CPU %: 46.2%                       Max RAM %:  5.1%              Max GPU%: 21.8%  Avg FPS: 55</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5 CPU 650 @ 3.20 GHz, 3192 Mhz, 2 Core(s), 4 Logical Processor(s)</t>
+  </si>
+  <si>
+    <t>Author -  Eric Hanks</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 760</t>
+  </si>
+  <si>
+    <t>16gb of Installed Physical Memory,  1.58gb of  Available Physical Memory</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro 10.0.17134 Build 17134</t>
+  </si>
+  <si>
+    <t>Max CPU %: 6.5%                    Max RAM %: 6.1%               Max GPU %: 65.5%                  Avg FPS: 59</t>
+  </si>
+  <si>
+    <t>Max CPU %: 6%                    Max RAM %: 6.5%               Max GPU %: 25%                  Avg FPS: 59</t>
   </si>
 </sst>
 </file>
@@ -594,13 +609,13 @@
   <dimension ref="C1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="10" width="25.6640625" customWidth="1"/>
@@ -609,10 +624,10 @@
   <sheetData>
     <row r="1" spans="3:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -628,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
@@ -655,19 +670,19 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -678,33 +693,43 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:11" ht="64" x14ac:dyDescent="0.2">
       <c r="C6" s="8">
         <v>43962</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>

--- a/Documents/TestingTemplate_Compatibility.xlsx
+++ b/Documents/TestingTemplate_Compatibility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EroR43/Documents/GitHub/TAFE-Group-Game/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1E050-F008-B44A-AD7A-02E052883730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230438ED-604A-A24C-A3CC-55413F7C8337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>Max CPU %: 6%                    Max RAM %: 6.5%               Max GPU %: 25%                  Avg FPS: 59</t>
+  </si>
+  <si>
+    <t>High-End</t>
+  </si>
+  <si>
+    <t>Mid-Range</t>
+  </si>
+  <si>
+    <t>Old, Mid-Range</t>
+  </si>
+  <si>
+    <t>Look at optimisation options for the rendering time of the game to reduce GPU usage.</t>
+  </si>
+  <si>
+    <t>No actions immediately necessary.</t>
   </si>
 </sst>
 </file>
@@ -608,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,7 +683,9 @@
       <c r="C4" s="6">
         <v>43962</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
@@ -684,14 +701,18 @@
       <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="3:11" ht="48" x14ac:dyDescent="0.2">
       <c r="C5" s="7">
         <v>43962</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -714,7 +735,9 @@
       <c r="C6" s="8">
         <v>43962</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
@@ -730,7 +753,9 @@
       <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.2">
